--- a/outputs-HGR-r202-archive/g__CAG-353.xlsx
+++ b/outputs-HGR-r202-archive/g__CAG-353.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -679,11 +679,11 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT77590.fa</t>
+          <t>even_MAG-GUT77615.fa</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.8315097497992152</v>
+        <v>0.6603885870740598</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -699,11 +699,11 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT77615.fa</t>
+          <t>even_MAG-GUT77900.fa</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.6603885870740598</v>
+        <v>1.134913196142156</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -719,11 +719,11 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT77900.fa</t>
+          <t>even_MAG-GUT78295.fa</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1.134913196142156</v>
+        <v>1.28147719982265</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -739,11 +739,11 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT78295.fa</t>
+          <t>even_MAG-GUT78410.fa</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1.28147719982265</v>
+        <v>1.308379608895228</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -759,11 +759,11 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT78410.fa</t>
+          <t>even_MAG-GUT8281.fa</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1.308379608895228</v>
+        <v>0.7154068525535244</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -779,11 +779,11 @@
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT8281.fa</t>
+          <t>even_MAG-GUT83922.fa</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.7154068525535244</v>
+        <v>-0.1543147940211806</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -792,18 +792,18 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>s__CAG-353 sp900066885</t>
+          <t>s__CAG-353 sp900066885(reject)</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT83922.fa</t>
+          <t>even_MAG-GUT85881.fa</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.1543147940211806</v>
+        <v>-0.5519771568626961</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -819,11 +819,11 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT85881.fa</t>
+          <t>even_MAG-GUT9085.fa</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.5519771568626961</v>
+        <v>0.5271292888698493</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -831,26 +831,6 @@
         </is>
       </c>
       <c r="D20" t="inlineStr">
-        <is>
-          <t>s__CAG-353 sp900066885(reject)</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT9085.fa</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>0.5271292888698493</v>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>s__CAG-353 sp900066885</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
         <is>
           <t>s__CAG-353 sp900066885</t>
         </is>
